--- a/artfynd/A 61551-2025 artfynd.xlsx
+++ b/artfynd/A 61551-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130818478</v>
       </c>
       <c r="B2" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>130818435</v>
       </c>
       <c r="B3" t="n">
-        <v>91762</v>
+        <v>91766</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>130818494</v>
       </c>
       <c r="B4" t="n">
-        <v>57826</v>
+        <v>57830</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>130818461</v>
       </c>
       <c r="B5" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 61551-2025 artfynd.xlsx
+++ b/artfynd/A 61551-2025 artfynd.xlsx
@@ -784,7 +784,7 @@
         <v>130818435</v>
       </c>
       <c r="B3" t="n">
-        <v>91766</v>
+        <v>91767</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
